--- a/data/trans_dic/P25_11-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P25_11-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +527,15 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que padece trastornos depresivos</t>
+          <t>Población que padece trastornos depresivos (tasa de respuesta: 99,91%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +546,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +584,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -618,6 +640,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,51%</t>
+          <t>3,08%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,3%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,4%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3,67%</t>
+          <t>10,73%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>7,02%</t>
+          <t>4,88%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>3,54%</t>
+          <t>4,42%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>2,63%</t>
+          <t>2,37%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>4,12%</t>
+          <t>4,78%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>2,37%</t>
+          <t>4,08%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>2,35%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>1,16%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>7,76%</t>
         </is>
       </c>
     </row>
@@ -685,47 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,47</t>
+          <t>0,0; 15,7</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,38</t>
+          <t>0,0; 26,23</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,86; 14,41</t>
+          <t>0,0; 15,45</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,96; 10,05</t>
+          <t>0,0; 15,68</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,66; 7,03</t>
+          <t>0,0; 12,24</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,65; 8,2</t>
+          <t>0,0; 15,07</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,52; 5,71</t>
+          <t>1,2; 10,73</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 7,27</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 4,8</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>2,46; 16,38</t>
         </is>
       </c>
     </row>
@@ -742,47 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>5,68%</t>
+          <t>7,68%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>3,64%</t>
+          <t>3,88%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,93%</t>
+          <t>5,16%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,47%</t>
+          <t>1,66%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>3,4%</t>
+          <t>2,06%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
+          <t>3,56%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>3,47%</t>
-        </is>
-      </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>3,52%</t>
+          <t>6,98%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>1,53%</t>
+          <t>4,9%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>3,73%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>2,84%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>3,87%</t>
         </is>
       </c>
     </row>
@@ -795,47 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,18; 13,12</t>
+          <t>1,9; 19,03</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,05; 9,91</t>
+          <t>0,0; 13,82</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,82; 8,51</t>
+          <t>1,39; 15,09</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,9</t>
+          <t>0,0; 9,9</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,98; 10,15</t>
+          <t>0,0; 10,1</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,13</t>
+          <t>0,0; 12,23</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,5; 7,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,36; 7,53</t>
+          <t>1,81; 17,0</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,41; 4,63</t>
+          <t>1,93; 12,08</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>0,88; 8,92</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>0,84; 8,3</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>1,18; 9,28</t>
         </is>
       </c>
     </row>
@@ -852,47 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4,06%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,21%</t>
+          <t>2,37%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>7,29%</t>
+          <t>4,3%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>10,7%</t>
+          <t>8,79%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>12,56%</t>
+          <t>8,57%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>10,62%</t>
+          <t>10,71%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>7,54%</t>
+          <t>9,8%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>7,22%</t>
+          <t>8,2%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>8,99%</t>
+          <t>5,31%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>7,45%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>7,56%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>8,45%</t>
         </is>
       </c>
     </row>
@@ -905,47 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,72; 13,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,56</t>
+          <t>0,0; 9,6</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,71; 21,81</t>
+          <t>0,0; 13,6</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,56; 16,26</t>
+          <t>2,21; 21,44</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>7,99; 18,56</t>
+          <t>4,0; 16,06</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>6,21; 16,27</t>
+          <t>5,74; 17,41</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4,74; 12,38</t>
+          <t>4,75; 16,52</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,41; 10,79</t>
+          <t>3,64; 15,02</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,44; 16,04</t>
+          <t>2,51; 9,46</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>3,94; 12,78</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>4,27; 12,35</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>4,6; 15,02</t>
         </is>
       </c>
     </row>
@@ -962,47 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>3,49%</t>
+          <t>4,75%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>7,19%</t>
+          <t>6,28%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>6,04%</t>
+          <t>5,01%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>13,4%</t>
+          <t>5,9%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>14,26%</t>
+          <t>15,14%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>16,27%</t>
+          <t>12,94%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>8,98%</t>
+          <t>19,86%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>11,06%</t>
+          <t>22,75%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>11,54%</t>
+          <t>10,35%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>9,85%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>12,8%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>14,56%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,29; 7,51</t>
+          <t>1,21; 10,77</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,69; 12,89</t>
+          <t>2,5; 13,65</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,98; 11,45</t>
+          <t>1,3; 12,39</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>8,81; 18,83</t>
+          <t>2,14; 13,17</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>9,86; 20,63</t>
+          <t>9,04; 23,03</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>11,21; 22,58</t>
+          <t>7,03; 19,89</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>6,07; 12,36</t>
+          <t>12,76; 28,63</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>8,1; 14,85</t>
+          <t>14,84; 31,87</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>8,33; 15,26</t>
+          <t>6,48; 14,94</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>5,92; 14,67</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>8,31; 18,27</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>9,79; 20,6</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1217,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>6,07%</t>
+          <t>8,87%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>5,33%</t>
+          <t>8,02%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>7,55%</t>
+          <t>11,41%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>13,55%</t>
+          <t>13,91%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>19,9%</t>
+          <t>14,25%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>15,47%</t>
+          <t>19,42%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>9,63%</t>
+          <t>20,14%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>12,25%</t>
+          <t>21,79%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>11,38%</t>
+          <t>11,13%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>12,7%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>15,12%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>17,65%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,61; 12,63</t>
+          <t>3,14; 17,81</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,28; 9,9</t>
+          <t>2,75; 16,72</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,68; 13,69</t>
+          <t>5,27; 21,38</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>7,62; 21,64</t>
+          <t>6,99; 24,91</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>13,44; 28,94</t>
+          <t>6,64; 26,74</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>9,32; 24,05</t>
+          <t>9,5; 31,9</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>6,23; 14,49</t>
+          <t>10,04; 33,24</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>8,59; 17,39</t>
+          <t>12,23; 34,84</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>7,65; 16,38</t>
+          <t>6,01; 18,04</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>7,32; 19,32</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>9,71; 23,37</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>11,61; 25,15</t>
         </is>
       </c>
     </row>
@@ -1182,47 +1357,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>5,48%</t>
+          <t>8,83%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>6,14%</t>
+          <t>6,47%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>3,92%</t>
+          <t>5,4%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>14,19%</t>
+          <t>10,62%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>7,73%</t>
+          <t>8,8%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>13,13%</t>
+          <t>12,03%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>10,38%</t>
+          <t>8,3%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>7,06%</t>
+          <t>10,62%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>9,44%</t>
+          <t>8,81%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>9,51%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>7,0%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>10,62%</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,38; 12,15</t>
+          <t>2,73; 23,36</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,79; 14,69</t>
+          <t>0,0; 18,84</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,07; 9,94</t>
+          <t>0,0; 16,96</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>7,51; 27,34</t>
+          <t>2,63; 23,55</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>3,4; 16,5</t>
+          <t>2,29; 20,36</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>6,32; 24,83</t>
+          <t>4,5; 25,77</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>6,02; 17,94</t>
+          <t>2,68; 19,6</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>3,36; 12,1</t>
+          <t>3,1; 25,0</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>5,37; 18,04</t>
+          <t>3,76; 17,13</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>4,04; 17,9</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>2,81; 14,94</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>4,95; 20,39</t>
         </is>
       </c>
     </row>
@@ -1292,47 +1497,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>4,38%</t>
+          <t>5,47%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>4,02%</t>
+          <t>4,6%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>4,86%</t>
+          <t>5,15%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>9,81%</t>
+          <t>7,93%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>10,99%</t>
+          <t>9,1%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>10,2%</t>
+          <t>10,34%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>7,24%</t>
+          <t>10,24%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>7,66%</t>
+          <t>12,51%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>7,58%</t>
+          <t>7,42%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>7,61%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>7,75%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>10,29%</t>
         </is>
       </c>
     </row>
@@ -1345,64 +1565,1712 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,92; 6,86</t>
+          <t>3,27; 8,36</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,67; 5,8</t>
+          <t>2,67; 7,48</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,19; 7,74</t>
+          <t>3,02; 7,87</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>7,72; 12,4</t>
+          <t>5,31; 11,76</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>8,79; 13,8</t>
+          <t>6,55; 12,11</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>7,83; 13,16</t>
+          <t>7,56; 13,48</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>5,87; 8,87</t>
+          <t>7,47; 13,19</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>6,36; 9,21</t>
+          <t>9,63; 16,24</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>6,24; 9,41</t>
+          <t>5,56; 9,34</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>5,9; 9,62</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>5,9; 9,74</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>8,15; 13,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que padece trastornos depresivos (tasa de respuesta: 99,91%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>3294</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>15639</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>6542</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>5310</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>2901</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>6952</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>9836</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>5310</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>2901</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>22591</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 16808</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 38237</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 20701</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 18826</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0; 14994</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0; 21920</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>2904; 25873</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>0; 16417</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>0; 12012</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>7172; 47726</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>12961</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>5459</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>7955</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>3780</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>3401</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>4516</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>11332</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>16362</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>9976</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>7955</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>15112</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>3202; 32104</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 19422</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>2145; 23276</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>0; 22532</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 16681</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0; 15492</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>2945; 27599</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>6449; 40333</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>2339; 23826</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>2348; 23288</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>4615; 36217</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>3180</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>5925</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>15846</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>22626</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>22416</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>19649</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>19651</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>22626</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>25597</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>25575</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>35497</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 12897</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 18713</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>3983; 38648</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>10572; 42411</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>12014; 36445</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>9525; 33112</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>8734; 36012</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>10680; 40322</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>13545; 43926</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>14453; 41747</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>19301; 63080</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>8868</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>10125</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>7825</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>11893</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>33055</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>24052</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>34259</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>48406</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>41923</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>34177</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>42084</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>60300</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>2267; 20099</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>4034; 22000</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>2033; 19358</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>4319; 26521</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>19740; 50281</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>13080; 36990</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>22003; 49371</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>31572; 67792</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>26242; 60513</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>20565; 50922</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>27301; 60041</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>40537; 85327</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>13969</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>10589</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>14062</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>21142</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>16226</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>17868</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>18301</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>29871</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>30194</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>28456</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>32363</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>51013</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>4936; 28033</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>3630; 22085</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>6498; 26345</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>10621; 37855</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>7557; 30439</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>8740; 29349</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>9118; 30197</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>16761; 47755</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>16302; 48948</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>16397; 43299</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>20779; 50032</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>33545; 72689</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>9656</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>5648</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>4869</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>14277</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>12103</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>12647</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>9184</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>22042</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>21759</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>18295</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>14053</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>36319</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>2986; 25541</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 16451</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0; 15283</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>3536; 31659</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>3158; 28014</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>4728; 27099</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>2965; 21677</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>6439; 51855</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>9278; 42299</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>7776; 34448</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>5632; 29999</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>16909; 69709</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>48747</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>35002</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>40637</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>82577</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>93953</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>86809</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>84294</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>138255</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>142700</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>121811</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>124931</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>220832</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>29116; 74487</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>20328; 56946</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>23856; 62080</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>55298; 122518</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>67651; 125123</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>63435; 113141</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>61528; 108569</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>106408; 179411</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>107060; 179651</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>94493; 153971</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>95191; 156965</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>175025; 278933</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>